--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k484\Documents\chinhung\dev\packages\taitratools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -27,12 +27,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>SOURCE_UN.insighteye</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/uncomtrade/un_merge_data</t>
-  </si>
-  <si>
     <t>SOURCE_UN.jack</t>
   </si>
   <si>
@@ -48,43 +42,77 @@
     <t>SOURCE_ITC</t>
   </si>
   <si>
+    <t>SOURCE_MIX</t>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20190823.feather</t>
+  </si>
+  <si>
+    <t>SOURCE_MOF</t>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/Projects/data</t>
+  </si>
+  <si>
+    <t>PATH_AREA</t>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/重要資料/area.xlsx</t>
+  </si>
+  <si>
+    <t>PATH_INDUSTRY</t>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/重要資料/產業hscode對照表_20191015.xlsx</t>
+  </si>
+  <si>
+    <t>PATH_FULL_HSCODE</t>
+  </si>
+  <si>
+    <t>PATH_COUNTRY</t>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/重要資料/國家中英文對照.xlsx</t>
+  </si>
+  <si>
+    <t>SOURCE_UN.import.insighteye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_UN.export.insighteye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/uncomtrade/un_merge_data/importmerge.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/uncomtrade/un_merge_data/exportmerge.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS_DS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS_DSTORE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/03_ITC_data.feather</t>
-  </si>
-  <si>
-    <t>SOURCE_MIX</t>
-  </si>
-  <si>
-    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20190823.feather</t>
-  </si>
-  <si>
-    <t>SOURCE_MOF</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/Projects/data</t>
-  </si>
-  <si>
-    <t>PATH_AREA</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/重要資料/area.xlsx</t>
-  </si>
-  <si>
-    <t>PATH_INDUSTRY</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/重要資料/產業hscode對照表_20191015.xlsx</t>
-  </si>
-  <si>
-    <t>PATH_FULL_HSCODE</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20190822.tsv</t>
-  </si>
-  <si>
-    <t>PATH_COUNTRY</t>
-  </si>
-  <si>
-    <t>//172.26.1.102/dstore/重要資料/國家中英文對照.xlsx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20191017.tsv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1036,11 +1064,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1052,86 +1086,111 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>//172.26.1.102/dstore/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/Projects/data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_MOF_old</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1158,33 +1166,41 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -27,9 +27,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>SOURCE_UN.jack</t>
-  </si>
-  <si>
     <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/01_UN_data.feather</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>PATH_INDUSTRY</t>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/重要資料/產業hscode對照表_20191015.xlsx</t>
-  </si>
-  <si>
     <t>PATH_FULL_HSCODE</t>
   </si>
   <si>
@@ -75,14 +69,6 @@
     <t>//172.26.1.102/dstore/重要資料/國家中英文對照.xlsx</t>
   </si>
   <si>
-    <t>SOURCE_UN.import.insighteye</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOURCE_UN.export.insighteye</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>//172.26.1.102/dstore/uncomtrade/un_merge_data/importmerge.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -119,7 +105,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>//172.26.1.102/dstore/重要資料/產業hscode對照表.xlsx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/03_查出口shiny/00_data_transfer/custom_data.sqlite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>SOURCE_MOF_old</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_UN_import_insighteye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_UN_export_insighteye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_UN_jack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_MOF_export_usd_sql</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1094,103 +1104,103 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1198,10 +1208,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>SOURCE_MOF_export_usd_sql</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20190823.rds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_MIX_rds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1082,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1168,57 +1176,65 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -42,9 +42,6 @@
     <t>SOURCE_MIX</t>
   </si>
   <si>
-    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20190823.feather</t>
-  </si>
-  <si>
     <t>SOURCE_MOF</t>
   </si>
   <si>
@@ -133,11 +130,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20190823.rds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SOURCE_MIX_rds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.feather</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.rds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1094,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1112,39 +1113,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1163,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,71 +1172,71 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -130,15 +130,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SOURCE_MIX_rds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.feather</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.rds</t>
+    <t>SOURCE_MIX_tsv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1172,12 +1172,12 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20191017.tsv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>//172.20.23.190/ds/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>//172.20.23.190/ds/01_jack/jack工作內容/02_資料彙整與運算/05_all_data_20191205.tsv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200108.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,12 +1124,12 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1172,15 +1172,15 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,18 +1193,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95618147-5794-478C-A2D4-F934401D791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9540"/>
+    <workbookView xWindow="540" yWindow="930" windowWidth="23655" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -138,14 +139,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200108.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200310.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1090,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95618147-5794-478C-A2D4-F934401D791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B25FD-EE5F-4EC5-9571-429A89F10FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="930" windowWidth="23655" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="22440" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200310.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200409.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B25FD-EE5F-4EC5-9571-429A89F10FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563EADE-1DB0-4B62-B689-59054EC4BBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22440" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200409.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200511.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563EADE-1DB0-4B62-B689-59054EC4BBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D57F1-89D7-48A5-BD42-F53D105CD1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="2895" windowWidth="21690" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200511.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200609.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D57F1-89D7-48A5-BD42-F53D105CD1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59593C-F8D1-4929-B1B0-7C946B255CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2895" windowWidth="21690" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="1785" windowWidth="21765" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200609.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200708.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59593C-F8D1-4929-B1B0-7C946B255CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973CEE27-179D-4455-B762-6EB19F062213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1785" windowWidth="21765" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1425" windowWidth="21645" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200708.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200810.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973CEE27-179D-4455-B762-6EB19F062213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31536F-42F2-467D-817C-40CE22087C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1425" windowWidth="21645" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7455" yWindow="5085" windowWidth="21465" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20200810.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20201008.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/tt_source_path.xlsx
+++ b/inst/extdata/tt_source_path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\K484\Documents\chinhung\develop\packages\taitratools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31536F-42F2-467D-817C-40CE22087C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF8C69-8A0E-4D5B-BC48-5BAD238CE976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="5085" windowWidth="21465" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3600" windowWidth="19965" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tt_source_path" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20201008.tsv</t>
+    <t>//172.26.1.102/dstore/Projects/data/hscode_data/full_hscode11_20210111.tsv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
